--- a/tmp/Book1.xlsx
+++ b/tmp/Book1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Desktop\WebDevelopmentLearning\My real projects\MyRealJob\moj-next\tmp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3406371E-4E68-4742-A5CD-A784974D41A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E470E213-F8DD-4355-9B96-30CCC8F49DBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{E6090E0E-9519-420A-AFFE-33487853A689}"/>
   </bookViews>
@@ -39,9 +39,6 @@
     <t>nationalityIDNum</t>
   </si>
   <si>
-    <t>cardID</t>
-  </si>
-  <si>
     <t>testingid</t>
   </si>
   <si>
@@ -52,6 +49,9 @@
   </si>
   <si>
     <t>sadf</t>
+  </si>
+  <si>
+    <t>officerID</t>
   </si>
 </sst>
 </file>
@@ -415,7 +415,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -429,23 +429,23 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
         <v>3</v>
-      </c>
-      <c r="B3" t="s">
-        <v>4</v>
       </c>
     </row>
   </sheetData>
